--- a/NJ/everything_onlyS/superlogical_gap.xlsx
+++ b/NJ/everything_onlyS/superlogical_gap.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="superlogical_gap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -902,7 +902,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,6 +910,7 @@
     <col min="12" max="12" width="5.140625" customWidth="1"/>
     <col min="13" max="13" width="4.85546875" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1454,6 +1455,10 @@
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="J15">
+        <f>R2+R3</f>
+        <v>4</v>
+      </c>
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -1471,6 +1476,10 @@
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="J16">
+        <f>R3+R4+R6+R7</f>
+        <v>192.42856999999998</v>
+      </c>
       <c r="N16" t="s">
         <v>15</v>
       </c>
@@ -1488,6 +1497,10 @@
       <c r="D17">
         <v>0</v>
       </c>
+      <c r="J17">
+        <f>R3+R4+R5</f>
+        <v>75</v>
+      </c>
       <c r="N17" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1652,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
@@ -1678,8 +1691,8 @@
         <v>181</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <f>J3-J17</f>
+        <v>107</v>
       </c>
       <c r="K29">
         <f t="shared" ref="K29" si="1">K3-K16</f>
@@ -1714,8 +1727,8 @@
         <v>87</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>J4-J17</f>
+        <v>0</v>
       </c>
       <c r="K30">
         <f t="shared" ref="K30" si="2">K4-K17</f>
